--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T00:00:00+02:00</t>
+    <t>2025-04-07T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,6 +135,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>minimum 4 professions</t>
+  </si>
+  <si>
+    <t>minimum 4 specificerede faggrupper</t>
+  </si>
+  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -142,15 +151,6 @@
   </si>
   <si>
     <t>2 - 3 specificerede faggrupper</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>minimum 4 professions</t>
-  </si>
-  <si>
-    <t>minimum 4 specificerede faggrupper</t>
   </si>
 </sst>
 </file>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ConferenceParticipants.xlsx
+++ b/fhir/CodeSystem-ConferenceParticipants.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
